--- a/Data Hasil Pengujian Evaluasi TA.xlsx
+++ b/Data Hasil Pengujian Evaluasi TA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7920" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7920" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Variable View" sheetId="1" r:id="rId1"/>
@@ -5502,10 +5502,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:L21"/>
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6804,6 +6804,40 @@
       <c r="G27">
         <f>SUM(C22:G22)</f>
         <v>2</v>
+      </c>
+      <c r="L27">
+        <f>SUM(H22:L22)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <f>SUM(C23:G23)</f>
+        <v>88</v>
+      </c>
+      <c r="L28">
+        <f>SUM(H23:L23)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <f>SUM(C24:G24)</f>
+        <v>10</v>
+      </c>
+      <c r="L29">
+        <f>SUM(H24:L24)</f>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <f>SUM(G27:G29)</f>
+        <v>100</v>
+      </c>
+      <c r="L30">
+        <f>SUM(L27:L29)</f>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -6935,8 +6969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8157,8 +8191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data Hasil Pengujian Evaluasi TA.xlsx
+++ b/Data Hasil Pengujian Evaluasi TA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7920" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7920" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Variable View" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Perhitungan Akurasi" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="90">
   <si>
     <t>Name</t>
   </si>
@@ -279,18 +280,52 @@
   <si>
     <t>Max</t>
   </si>
+  <si>
+    <t>Menggunakan Sistem Manajemen Pengetahuan Gamelan Bali akan memungkinkan saya...</t>
+  </si>
+  <si>
+    <t>...menyelesaikan tugas lebih cepat.</t>
+  </si>
+  <si>
+    <t>...meningkatkan kinerja tugas saya.</t>
+  </si>
+  <si>
+    <t>...meningkatkan produktivitas dalam pekerjaan saya.</t>
+  </si>
+  <si>
+    <t>...meningkatkan efektivitas dalam pekerjaan saya.</t>
+  </si>
+  <si>
+    <t>...lebih mudah untuk melakukan pekerjaan saya.</t>
+  </si>
+  <si>
+    <t>...menemukan bahwa sistem ini berguna dalam pekerjaan saya.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -328,9 +363,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -346,6 +390,4894 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Evaluasi!$A$22:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Netral</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Agak Setuju</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Setuju</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sangat Setuju</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Evaluasi!$B$22:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-89BC-481A-A170-04F72A6E664D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Evaluasi!$A$22:$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Netral</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Agak Setuju</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Setuju</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Sangat Setuju</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Evaluasi!$C$22:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-570D-4ECB-8297-75D190C8B092}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>Evaluasi!$D$22:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7843-4EE2-A42E-029D3CDA0B3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>Evaluasi!$E$22:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4EEA-4898-B361-1A1F2E13886A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>Evaluasi!$F$22:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4B00-4020-AC8D-CB583A9E0CCD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>Evaluasi!$G$22:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-049F-471C-AC32-F14BDA0AC3EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3592,9 +8524,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -5125,6 +10062,9 @@
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
       <c r="B22">
         <f>COUNTIF(B$2:B$21,4)</f>
         <v>0</v>
@@ -5183,6 +10123,9 @@
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
       <c r="B23">
         <f>COUNTIF(B$2:B$21,5)</f>
         <v>2</v>
@@ -5241,6 +10184,9 @@
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>62</v>
+      </c>
       <c r="B24">
         <f>COUNTIF(B$2:B$21,6)</f>
         <v>9</v>
@@ -5299,6 +10245,9 @@
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>69</v>
+      </c>
       <c r="B25">
         <f>COUNTIF(B$2:B$21,7)</f>
         <v>9</v>
@@ -5357,6 +10306,54 @@
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <f t="shared" ref="B26:M26" si="14">SUM(B22:B25)</f>
+        <v>20</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
       <c r="N26">
         <f>SUM(N22:N25)</f>
         <v>120</v>
@@ -5417,7 +10414,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:Q21 N22:N26">
+  <conditionalFormatting sqref="N2:Q21 N22:N26 B26:M26">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -5458,6 +10455,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -5481,7 +10479,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>N2:Q21 N22:N26</xm:sqref>
+          <xm:sqref>N2:Q21 N22:N26 B26:M26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2E1E18C2-A0A5-4DD1-BF2D-45682AF4111D}">
@@ -5504,8 +10502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6967,13 +11965,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection sqref="A1:M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="15" max="15" width="56.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
@@ -7628,7 +12629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -7669,7 +12670,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -7710,7 +12711,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -7751,7 +12752,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -7792,7 +12793,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -7833,7 +12834,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>72</v>
       </c>
@@ -7886,7 +12887,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>73</v>
       </c>
@@ -7939,7 +12940,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>74</v>
       </c>
@@ -7992,7 +12993,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>77</v>
       </c>
@@ -8045,7 +13046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>78</v>
       </c>
@@ -8098,7 +13099,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>72</v>
       </c>
@@ -8115,7 +13116,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>79</v>
       </c>
@@ -8136,7 +13137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>80</v>
       </c>
@@ -8158,7 +13159,118 @@
         <v>7</v>
       </c>
     </row>
+    <row r="31" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O31" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+    </row>
+    <row r="32" spans="1:22" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="O32" s="3"/>
+      <c r="P32" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="R32" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="S32" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="T32" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="U32" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="V32" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="15:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O33" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+    </row>
+    <row r="34" spans="15:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O34" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+    </row>
+    <row r="35" spans="15:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O35" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+    </row>
+    <row r="36" spans="15:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O36" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+    </row>
+    <row r="37" spans="15:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O37" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+    </row>
+    <row r="38" spans="15:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="O38" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="O31:V31"/>
+  </mergeCells>
   <conditionalFormatting sqref="B2:M18">
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -8191,8 +13303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data Hasil Pengujian Evaluasi TA.xlsx
+++ b/Data Hasil Pengujian Evaluasi TA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7920" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7920" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Variable View" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="Perhitungan Akurasi" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -367,13 +366,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,6 +427,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-0B3C-4490-A640-E0DC3343A570}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -443,6 +447,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-0B3C-4490-A640-E0DC3343A570}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -458,6 +467,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-0B3C-4490-A640-E0DC3343A570}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -473,6 +487,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-0B3C-4490-A640-E0DC3343A570}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -648,6 +667,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-26A6-4D71-97D9-1E537A281FAB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -663,6 +687,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-26A6-4D71-97D9-1E537A281FAB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -678,6 +707,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-26A6-4D71-97D9-1E537A281FAB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -693,6 +727,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-26A6-4D71-97D9-1E537A281FAB}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -896,6 +935,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-E3C6-46FF-BECC-276AFD8E3F9F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -911,6 +955,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-E3C6-46FF-BECC-276AFD8E3F9F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -926,6 +975,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-E3C6-46FF-BECC-276AFD8E3F9F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -941,6 +995,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-E3C6-46FF-BECC-276AFD8E3F9F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:val>
             <c:numRef>
@@ -1072,7 +1131,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1124,6 +1182,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-6EB1-44B4-A419-D8A3A036D606}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1139,6 +1202,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-6EB1-44B4-A419-D8A3A036D606}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1154,6 +1222,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-6EB1-44B4-A419-D8A3A036D606}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1169,6 +1242,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-6EB1-44B4-A419-D8A3A036D606}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:val>
             <c:numRef>
@@ -1218,7 +1296,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1300,7 +1377,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1352,6 +1428,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-552F-44BA-B0DE-C42E46BB41C5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1367,6 +1448,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-552F-44BA-B0DE-C42E46BB41C5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1382,6 +1468,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-552F-44BA-B0DE-C42E46BB41C5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1397,6 +1488,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-552F-44BA-B0DE-C42E46BB41C5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:val>
             <c:numRef>
@@ -1446,7 +1542,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1528,7 +1623,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1580,6 +1674,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-713F-4B90-BDC1-AE6F99E5BC4C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1595,6 +1694,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-713F-4B90-BDC1-AE6F99E5BC4C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1610,6 +1714,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-713F-4B90-BDC1-AE6F99E5BC4C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1625,6 +1734,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-713F-4B90-BDC1-AE6F99E5BC4C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:val>
             <c:numRef>
@@ -1674,7 +1788,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6053,7 +6166,7 @@
   <dimension ref="A1:Z39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AB16" sqref="AB16"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8524,8 +8637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:B25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10502,7 +10615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -11968,7 +12081,7 @@
   <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M21"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13160,112 +13273,112 @@
       </c>
     </row>
     <row r="31" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="O31" s="2" t="s">
+      <c r="O31" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
     </row>
     <row r="32" spans="1:22" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="O32" s="3"/>
-      <c r="P32" s="4" t="s">
+      <c r="O32" s="2"/>
+      <c r="P32" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="Q32" s="4" t="s">
+      <c r="Q32" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="R32" s="4" t="s">
+      <c r="R32" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="S32" s="4" t="s">
+      <c r="S32" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="T32" s="4" t="s">
+      <c r="T32" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="U32" s="4" t="s">
+      <c r="U32" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="V32" s="4" t="s">
+      <c r="V32" s="3" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="33" spans="15:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="O33" s="3" t="s">
+      <c r="O33" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
     </row>
     <row r="34" spans="15:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="O34" s="3" t="s">
+      <c r="O34" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
     </row>
     <row r="35" spans="15:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="O35" s="3" t="s">
+      <c r="O35" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
     </row>
     <row r="36" spans="15:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="O36" s="3" t="s">
+      <c r="O36" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
     </row>
     <row r="37" spans="15:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="O37" s="3" t="s">
+      <c r="O37" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
-      <c r="U37" s="3"/>
-      <c r="V37" s="3"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
     </row>
     <row r="38" spans="15:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="O38" s="3" t="s">
+      <c r="O38" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
-      <c r="U38" s="3"/>
-      <c r="V38" s="3"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Data Hasil Pengujian Evaluasi TA.xlsx
+++ b/Data Hasil Pengujian Evaluasi TA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7920" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7920" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Variable View" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="91">
   <si>
     <t>Name</t>
   </si>
@@ -299,6 +299,9 @@
   </si>
   <si>
     <t>...menemukan bahwa sistem ini berguna dalam pekerjaan saya.</t>
+  </si>
+  <si>
+    <t>Sepenuhnya benar</t>
   </si>
 </sst>
 </file>
@@ -1854,6 +1857,574 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Akurasi!$F$27:$F$29</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Salah</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sebagian benar</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sepenuhnya benar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Akurasi!$G$27:$G$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5AAD-483F-ADEC-72D61709D747}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="id-ID"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Akurasi!$K$27:$K$29</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Salah</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sebagian benar</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sepenuhnya benar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Akurasi!$L$27:$L$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-19B2-4971-9D57-579FC9D0AFF3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="id-ID"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="id-ID"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2094,6 +2665,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
@@ -4690,6 +5341,1044 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5385,6 +7074,71 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1095375</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8637,7 +10391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -10615,8 +12369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11912,29 +13666,47 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>52</v>
+      </c>
       <c r="G27">
         <f>SUM(C22:G22)</f>
         <v>2</v>
       </c>
+      <c r="K27" t="s">
+        <v>52</v>
+      </c>
       <c r="L27">
         <f>SUM(H22:L22)</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>53</v>
+      </c>
       <c r="G28">
         <f>SUM(C23:G23)</f>
         <v>88</v>
       </c>
+      <c r="K28" t="s">
+        <v>53</v>
+      </c>
       <c r="L28">
         <f>SUM(H23:L23)</f>
         <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>90</v>
+      </c>
       <c r="G29">
         <f>SUM(C24:G24)</f>
         <v>10</v>
+      </c>
+      <c r="K29" t="s">
+        <v>90</v>
       </c>
       <c r="L29">
         <f>SUM(H24:L24)</f>
@@ -12073,6 +13845,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
